--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/18_Bitlis_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/18_Bitlis_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F6AF1A6-CFDC-4368-89C1-C5C92DE1DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B6E299-843D-4B0A-9683-E40520319905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EB17D18-8D49-4F96-B8EC-89E5706C222D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A733788-C498-4456-9A51-7D8EB5A90548}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{31EF3F58-85A4-4262-8124-8E07AA319756}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{18FBD0FA-72BE-43E9-A40A-BAB15C1AF3C8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{890B30EA-DA40-4FAD-8E75-0120075D3217}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{D45BFB0B-3CB8-4A23-B3E1-59A5D58B5A82}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{75E31BAE-A45D-4A5F-B209-BA2A514C7787}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{A91ED8FB-5301-4712-983C-FF820FFD0F97}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{8B8CE9D7-17A8-40EC-B4D6-F8B44F57FC75}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{6976F39B-3849-4041-8012-AC57ECA63EA7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9FF9C-189A-4DCE-813A-C21F4C29528D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA5A02E-70CD-4910-99AF-50499244F8FE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2417,18 +2417,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ED0EA18C-040A-4AD8-A4D0-4F4AACE23F18}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{15A7E632-337B-4461-9A4C-A3695B881E24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{08A92E50-BF3B-43A6-A2B5-4986E2E11CDC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{09C9CA8E-6543-4295-886E-83E246BF5E4F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6C07C99B-650D-4DD9-9006-7D97884D822B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{98D38641-BB89-4EA8-A307-03E11DFADCAB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{42C6C436-E884-4E1A-BB6D-3635756A0BC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{72B62A84-9B21-4465-AC7E-52A8496C213D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{45A7D6D9-09C9-4C25-8E4B-79102B4D27AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{05673884-2D77-43E6-9EC0-129208EEBCB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B3FD9118-E065-47AD-AF60-E0B50FDF1F96}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{34ABF8EB-1A22-4A09-A44F-B8F31C240525}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{70C27AFA-D3B5-430C-8DB3-65D25BA5DD9D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BDD9357F-5D55-49D2-9B08-CF1EF302BAC0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FAFF2B5F-23EA-4BDA-9045-437822409D90}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E22F23ED-FA78-4A75-8C8D-677E7EDE38C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{126B0FD0-52CB-4EB6-8F18-8049CCE9A8B4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F8A551A4-5A1E-4057-BF23-D81D98107EB4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{54193D4B-3A9D-441F-A1BE-E7564B90A221}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BCA7CEBA-598E-4A7E-A74B-4DB3B065C5D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3759D1FB-DDEA-48CC-A3D2-E4AA7FA4FBC8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{29D48898-0278-46F0-B460-275D64850324}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E85DD290-AD77-4609-BAE2-6173A08B519A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FFF51D5D-6D57-4B35-9004-F4166AF01357}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2441,7 +2441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D356880C-5F72-4300-B221-06A50DC3C3C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A48EBE-C674-4070-914C-1B196E6FA63A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3586,18 +3586,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{91798880-2369-4735-B840-6F3954A5E306}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{62C17455-E4D2-446D-8B08-8AE53F854C4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BE788BC1-3444-447B-98C3-8E110DC82E76}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FFEBB791-BDBB-4895-B224-FBDD939DABC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F11DFE99-5D72-435D-B0A0-A9F03648643B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C64B9706-18CA-40FA-B099-C8ED2F4B67C4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{49C4430C-B65D-46DA-A45D-DFAA13231139}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C20DF030-DEC4-45C9-9D26-BBBA4F869130}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CB4EC6D2-89B3-4C37-A1DF-DF6A770EAB3D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7D541B13-946E-4E48-A471-D4FA78B43685}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{31517AA3-6D78-43F7-BDAF-A5D9FC796A6F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E3F79500-78C1-4BD6-AF26-6D4E9FCF891C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3DB7842-248C-471E-A4DE-777D6DFE46EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2B40A85E-B049-443F-AB20-886819F9E263}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C610C7D4-57FF-4E59-9AFC-FB84A82B7F93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{54E735C8-7069-48D2-9451-74CD9F7DA87B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{417BF661-E03F-4C99-BBB0-99AFD70ADD00}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9DE3E47D-EAAF-426C-8D21-C502B93CFA6B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FE43B85B-19CB-4F6D-AFCA-AAA5D561EFCC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E0AF3A7-F979-46B3-BFCE-03D1B3EE37B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{77BB789A-93D7-4CD5-93A2-F899A36DF0AA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4ED5427C-E248-4B8C-AEBC-4A21A52DA85A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AB088222-887D-4E08-9A5F-6E219BFF4239}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{85D36EF1-1F55-4FC9-8C58-72F6C6A4A2DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3610,7 +3610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA3B851-F621-4FDB-958C-74500A2139BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5910964C-ACBA-4560-84C9-B89B726283F9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4755,18 +4755,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1F5F34C9-FF61-4DFE-8E1E-1D120CE99436}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8830AD47-3348-4A99-81EC-69B77A1D1874}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4D51D2B1-5307-4B59-A700-09BD34957BCE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7F7EB267-FA5F-4E40-9052-2DCDEEA87562}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CD8E2C51-1832-4936-BAB8-7EC1CE9334C3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{84590EBB-B2F7-4BCC-95D9-63CE049B6BAB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C28B72EA-0CC8-420C-A283-245A1D4DB497}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C227862A-87B9-4F1C-9F55-709549C110DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{712AD3F8-458D-44CB-BB8E-B7084E6D02E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{09F3D4B1-6E82-45AC-9AB9-3B01343DCF20}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7458601E-1A38-4954-8574-38F5C3AAB5F0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{45A07847-B1A3-4385-B7DA-7032C0EDCFA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E3AB886-ACCD-40DE-8C15-8F02F10B91C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FCAD1D92-A6BB-41BB-A1CA-14C35C3DC351}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{10196F88-2BED-4269-8216-7D16FBE92205}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BD4CED21-B941-4256-A2C9-02BDF41D91EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2DC55697-7EC4-426C-A08C-B5DE76EC7E3B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{94227144-7A78-4F79-8A5F-634AF122CAF4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{95961CD7-0307-47F0-943A-575E522A2309}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{80539198-96EF-43DE-8B3C-1197F22BEEAD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DED48006-9D1F-4B7A-BE49-CB50FBDA84CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C28D36DA-231C-413D-97A3-9F5CCF8A82B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{74F0B82A-EF45-4A5B-BE7C-0B6605292971}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E7920102-31C9-433F-9936-7157EEA75E16}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4779,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79981897-4806-40BB-BBB3-BE00A37DADCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220FA184-2893-46D2-8388-1B7B62670F65}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5920,18 +5920,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E5C7EAFF-8BCB-40AC-957F-1BCC1E28E174}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{81170F52-AF62-4C74-82EA-5FDE5E33D775}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BCDA97EE-4781-4E6B-A967-67E9AB5009DC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{487FB3EA-4A8D-49B8-BAC9-A34C1375C6B6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{559CBFC6-B1A4-44C2-9FE9-8AD749FA0909}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9E6100AE-54AC-4910-AD0A-33C17063A0EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0145865C-48FA-48B6-B1FA-50209DE90CC5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CA3E6599-B53B-49EF-87CE-0A4284959AC6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BA5DA72D-0EB2-424D-99BF-492567ACCF95}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{990E8637-8949-4FB1-8C69-48D2F5DBC966}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8D36B234-E3F1-4414-9D51-D4A03DCD2C91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{305720FE-F28A-41AE-A243-C7894B0B561C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F0A4D90A-C647-4D94-9DB2-1CA973786860}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4F5C392C-F35B-43B1-BA0F-D0E106B13A77}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0B960209-0986-4A54-ABE9-5A582CB44D2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E88EDFD8-1C5D-4D89-8438-BABC7E60BC41}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E7566CC-57AE-47FA-AE83-9A2146C8D654}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C4D4D2E3-F4F9-413C-B140-B614B9DB23D1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{08B221D9-1C06-4A7E-9046-E53BD7CD32F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1783B862-594A-4183-8377-AD21246477F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DA57C879-D483-4FDE-BCDD-EFD3A545CF72}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D5424A8C-E0C4-4C4C-A022-72059EA4F047}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6DFB4A05-ADB9-48B9-BE89-C7F717B3382D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{37842792-8D6F-4435-BE77-F94DD48122DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5944,7 +5944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3507D-5846-4849-8C11-195959321E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40BA5DB-AA0E-48E4-9A9A-D953E9F8CC7D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7127,18 +7127,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5A98C6B0-69DA-4257-A75B-F06BC4019396}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DB6AC3D1-E535-4BF4-AC2D-52C26F80758A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D1A342CD-18B2-4603-A173-B9C025F92E12}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D2ACD6B7-DB39-4BE5-8DBA-788149AE6395}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C3FDED0-A1E5-4A18-9683-687E3245EF37}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D56FE71F-1C97-4DAE-9740-23B91A9AA08F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{34B6592C-520A-4A85-89F8-5904B99A4257}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0B586C5C-2A81-4EFD-BEB8-C86E70EA5CE6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{93598DC4-CB60-49E9-9A8A-0AC5F7FAD7B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FDC0A029-33C0-4CE5-B1FE-F6D5663B30CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F4F0A24C-416C-4EC6-9C76-C2A30B9576B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EABE4DDE-C642-4887-B29E-D7C872C13CC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BA409D4D-C03D-4299-BA8A-C1C620566EF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D958AAA9-99A6-4021-8B00-BFCB53C765F2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F5D21592-20E9-4CEA-AC00-83A3F3D267CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5AC07843-FA23-4EEF-AA5A-6A02C343AC04}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{957BDC14-6C10-45AB-A312-A287032EB74C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FF21C631-8DCE-42B5-9320-3065BFC633BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{554E0CE5-F31A-48C6-B3BE-3CBDF7A717EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E1205014-D70D-4F2E-B621-F468CA61A65D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{67EC5A82-2161-4B48-8990-CEFDECF87046}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{039ED16C-584E-4DF6-A0C5-7F00DFD4E55B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{249B1919-6DEE-4E93-92BC-0B07E79FAB4F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FB932183-589D-4498-ADE5-324F57BFEC5B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7151,7 +7151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10DA77F-01B5-4691-8031-11FF1C9E1D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AC376B-0826-4070-A545-024C2A039761}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8324,18 +8324,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{583242E1-5505-4DC3-AC05-84FA7F9E8766}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0486908D-B7D9-4115-ADBF-FF46FFA0C097}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2D8EF164-3697-4272-A5D4-2C980E0EA622}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B5C8B7DD-B139-44A0-8659-D0ECA126A72A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AADD68F8-2EEE-4B42-A407-8639D5000124}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2AE934C3-C29A-4DDB-B35F-F01B09EB440D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4F56BFCA-8D0F-4EA6-B64E-1860133975D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{249262A7-2105-4C35-A008-3EECF258AE38}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{98C401A2-9F9A-4A5F-A120-E034F2AE4C6A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0AB457DB-1FCE-4B92-9A0C-975E770E1BC5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E240439F-E737-4E92-9127-0DEA69CB25BB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E6D3D8C8-BA3D-4204-A834-6BE978A92124}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{45B525E8-48A4-4BF2-9B27-20D7847E2A51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5A7DF8EC-BC07-4604-8385-64AAC8E2ABBA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{272AE248-B798-48E0-9780-E67277914EE0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A34437E2-CD8F-4346-AC5A-FB49BAAC9AD4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FFE7D959-D32E-4385-97F1-D6BB659F1375}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4D5883AA-5D9C-4F65-9980-D5952A97C4AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{38C97992-B749-467B-B6B4-1D36E77D5466}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4E0BBDE9-1ECF-44F4-B9BD-51299A95BE9D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C70C8994-49C6-4CDC-BA54-BFDE6E6C3118}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{07FBBBC8-9D0B-4A2B-873C-ADF08CDD1A57}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7EC3442D-ECAF-4841-917A-36097D2BCD41}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C66EFE7F-7D48-4736-AFCE-C8301573C270}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8348,7 +8348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540523B7-1694-4054-98C0-C07F88BD8BF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A17E47-73F0-43E8-9606-E0199001378B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9515,18 +9515,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3A0E3306-EE4F-494D-8DCA-16F64C1201D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C566EEF3-570C-4886-A891-F083C0BE491D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ACA19C67-89B5-4EDE-AED6-288771D95AF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{77D7525B-E051-4E1E-9457-5D29259840D3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{38951CE1-F391-4E3B-A1B5-468B106C0D02}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C50D27C1-54C7-4C97-BABA-93E3E016665D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{44D58E05-E0D0-4BD9-888A-2BB4BB965E3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{311979F3-FD3D-4A7B-B283-BB79D408C34A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{37D45F3A-76B3-468B-82B6-7A0FBF82BEF1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A02C128B-174A-4415-AB3A-EB03ECB9D82A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7155E43A-ECB0-4E00-BCFF-E3123F005CF1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D81CE268-4A8A-47FC-92F7-9D70CD75EF06}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E87C67C9-89DD-49C8-9353-8F5DC7CA643A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{61BBE9C8-A815-453C-8930-DBCF18ADFDA4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1AD17D17-1CA5-425E-BBBC-83749DD2E522}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FA0FDE36-C7E6-49B7-82DC-B286B9976458}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E149F079-6766-4F27-BCDF-74F805C5D757}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{799C339A-1E97-4888-9D37-8B929B3AF248}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{27CA50B2-E589-45D8-8533-67445E455523}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1D2E1B66-F9B2-4AE7-B1E1-E267198DAACC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{38AA3205-72EB-46CF-80A5-D3EB09A83281}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E6DF0F2D-6D61-44D8-AC79-4BF33718F6EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0AA45E1D-EA37-4B9B-BCA9-20EE7612B3CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{63EE7758-74FE-406C-8958-A9A178B1EFF9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9539,7 +9539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAE6F33-B398-45A8-82F1-7A4A0BD2A772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA78D6DD-A3F2-419C-8550-7549CB40C4F2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10706,18 +10706,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8FA2531F-67D8-4A06-9174-D80FDAA6454C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0A9DBD7A-8FA7-4218-A24B-CE158A4ECBCE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0C649D06-689D-4313-9A90-FBC2774D32A1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4218FFAC-9D1D-4FA3-8E5A-546BF48B9181}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{74BAB751-3D30-4370-942E-09561E43C16F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DB533C20-3F43-44B5-924F-A316F58BD2A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{01F0D154-DECF-4E23-9E2E-DA2B3ABFFC10}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{129629FF-30DD-4D87-ADFA-DF95B1DECD0B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{951F451B-6A1A-4BA6-9BF7-269297ED0A34}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{13AA6385-890C-429F-816A-2F493AC6D9A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3605965B-4C75-4846-BBCB-A9E2368F4EC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A4D1960-019C-458B-B8F8-E8A12341BF7A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{47F201DC-CDE3-4E81-BD93-64B6B568909A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{97ABF0F5-B612-4282-9FF4-0B32ADB737E4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5C38DB38-87A3-44EF-8029-406F41133897}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38870065-1D20-4A4C-8881-E67456BC9890}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DED57608-3518-4658-A82C-9029FE3F94D9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D1F65A86-0740-48A2-B93F-9D0A3772C089}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C7E82B0-F787-4EB9-9378-87422A244C6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{44D84ECD-08F9-4BE6-9AEB-71B66A0696DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{811A106D-628F-4B8A-A6D0-DB370426F3B9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AF86E09F-92CE-4330-9462-894792140FC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5C7D6690-D4D6-4CE4-B8BF-6449E758A5BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{26F0932D-F017-42E8-9CCB-C774D4B072D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10730,7 +10730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281E91E2-ED0E-4416-9ACC-4D51E8B199C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3599C20-50F2-4D31-B799-EF55D65DAC4D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11897,18 +11897,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2D237E2C-AFD7-4CF1-B955-646D99561567}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3A932754-FAEE-4445-BB1E-D8297AD223A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AD9B43EB-EB87-405E-8C6B-7315D3A7C35C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2755DA78-DD2E-4074-9901-67F13AEE536F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CDDE79D5-20DB-4D49-99EE-F6786EAEB834}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9E172D93-9D38-4C08-8DAE-06DDA1A0A001}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BCE49314-EFC6-42B9-B69C-928E94BED83C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{725E7259-C9DF-4840-A6E1-08C2B910252D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{28AD4EF6-B408-4A3C-BE16-A12EF90C480C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{109971C7-3D91-4405-82C4-1F43A3A0C2C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E3CF72F4-B279-496A-BC35-6D783FD8CBD6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{648B5CCF-EEE7-4107-8C51-8E700BEDC66B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0C17F2E6-B68E-4152-8F1E-62851EB9CAF3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A724972-D3C6-4631-BEA1-AB550F0897C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{04D1C32A-1B23-46B5-BC80-02DA23E2220F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{141DD961-2B29-4401-B126-53570B109AE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6BE87AFB-C2F9-4B86-8BB2-C6FE0836AF59}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{66D1C091-3D4D-42BA-927C-8C5794176F53}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BE84E875-3BC3-449A-A1F0-9569D03220D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{221F0708-EAC2-4ABA-BEE2-37A17549B853}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{989D8802-B840-4198-93C0-42129B57B163}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{28D27FD7-CC53-46D2-BF82-6720943F11E2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{06799C52-777E-4ABB-9C2A-2FB1E892E953}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B0E74790-2399-4EED-B366-26D3C4CB0BAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11921,7 +11921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96FAD84-E4DE-4F14-920A-71A9A51FC94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B01DA-5584-43C8-B4ED-6B7F27E45F25}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13084,18 +13084,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4CDAE319-3803-45CB-B7CF-8BD229E8254D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09CA4E0B-47F2-474C-8BA2-8236AF8B6EB1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A9A27C2C-089F-4A59-B117-BF8FF7BE8626}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3EA2B767-5FE4-4B0D-967D-E64C914F4CD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4C7BD90C-3520-431A-A484-87C39D786915}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FEC19B7C-9AC7-465D-80E3-8E4592B4F619}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BA41E65A-D545-4E8B-B5A2-5573A5D6AB26}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7CFF05D9-81D9-4E9F-A0F3-68F7ABE94937}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D9CC11D5-0CD4-4A85-A6AB-9A5C1B3D3943}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5FCFAA85-1ADC-4523-B369-03452B7830DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0CAA91B2-9DA9-42B9-A8A6-D0F3498502E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FC866CA4-8DF0-49A5-A0D0-A9A796A81239}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C2CEE8E6-42DD-461C-9762-91FA9C3C116B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C5398205-0CD9-4418-A6A3-24C9A427CB90}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B3EAAF96-BA57-4FC8-BC2F-6497EA412068}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{23DD6EFA-5E9C-4270-A2D9-209A04816068}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1E7FCD42-7A0A-4865-89F1-C224D4552564}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{41F48454-852C-4B87-AD20-3F63C0004CBD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3570CD7C-4667-4B08-83D6-27BC3C3FFDB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D262F9E9-AC18-4263-960B-6CE40FC50B10}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{16ADA50C-8348-4EC4-A207-D30A3972B69B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{756BF589-0069-48F1-B3DD-4A3345C18817}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4C2CC0C2-8253-43B2-96A1-ABE5EB352ECE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8F5E048E-9035-4431-ABB0-77A468365E19}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13108,7 +13108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867D2416-1777-4EF7-B886-B91ACA4D1C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAAE00D-DCED-4A59-B619-7692DCEC7452}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14263,18 +14263,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AC11FA8C-958D-4B9C-8D4E-6B5E2EFD3E6F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4927A1F6-32C7-40E8-9E53-59FDCE1748B7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1FC4F5C0-6048-4AF3-AC22-EC77F163B72B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6DBCE1F3-B68B-4BDC-BD77-48316A1AFC53}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{147D0B7E-FAA2-4746-86FD-7010CD6C3676}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2D69354C-81A3-40F9-9225-E47D21609D16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0F028345-FD18-42FA-9DA8-B64EEB1A3896}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8941FAB5-A172-4086-AC16-F5A3CD05CAEF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0BCECF05-A157-4832-AE00-A6FAA4DA9D10}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{311E21C9-5B17-49B2-B771-1E4824EA0253}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{42774B5D-F8C5-4F09-8BA6-B25C6CBF4557}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A9673DDC-3CEC-4238-AF8F-C2CF03529E94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D612584A-61CF-42CA-BBFE-46E9104BBD92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{06AFCA20-B7EB-497A-8757-9465B7CC06B6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{214CA840-CD38-45FA-91A1-D3F3B045A83D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{351FCE1B-B55A-4572-8A34-7ACE2202C8A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D298B951-F95A-47FB-8B4E-E33EAECEF4EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1FB77844-77DE-4345-9255-9C46C28F7702}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0C28EEF3-1B2C-4F06-A270-0B9C8DE9BFF1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2827B22E-2ACC-4808-BAEA-4C3E915FD3AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{941911B0-EEDA-4C8C-BF6B-A9A26D5C26B8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{65FBFDC2-B3DD-4B46-ABE4-6FC251F2D8F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A10556CE-725C-4BD8-B95F-E9CEADA7EA77}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AF56004B-63BF-4A60-98AA-AA7D96A3FC0D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14287,7 +14287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BABC4D1-66DE-4070-8D44-DFF49473D7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A25CD7-F494-4B4A-9CEA-999F86AAD8B1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15442,18 +15442,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{035A6176-C30A-4F7D-A3B1-355403D92AFA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{07015ED2-FD3E-4656-B6E9-EBC15B2E0DF7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F3E2C056-7AF8-408A-96FA-9871DA535039}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{595D3F6C-0318-4221-9EAB-118737852BB2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D749BB15-FA02-495F-A827-9E34110A6592}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CA5B605C-4548-4D3F-84A9-480295F26718}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9E22C085-289B-452B-88D2-D5414496C75F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{74D0A2D1-24CC-4103-B7F5-BBC63F5C00DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E356EB07-50F1-4865-9384-39097CC23486}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1A0E9C59-FB90-4EFB-9B10-2ABD3B855437}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{67E51E85-47DB-49BC-B913-F13DFB79442D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FA2C10CC-81F3-4C6D-AE32-15A7EB4B4528}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C880359C-B91F-4B07-83C9-9C5C8A03CED3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BC904CB3-50CF-4C2F-8912-B10946BCB0DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2E93F668-E1E0-482E-B39E-987FDBB8C54F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DF402B94-93CD-4194-8A5A-9852811C0011}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{77229AD6-5EC9-41E3-AED5-6C72BBEB26D5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{074F31A1-46BA-4D91-9B96-91B7D6188D32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{46698CEC-C554-4108-AF3A-50E0DDAB522A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5C335456-5C0D-4C95-AD49-A48A7A4EF2E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FB66E915-8BF0-414F-AF13-5CCC7B5C6302}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{98FCDC90-1774-4F2B-9B2D-A6F7EAAB846E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{17D9E1B5-FADD-4A50-9431-7E826DED00B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{415BC61F-2390-4EDC-9C2D-1A20CAF8BE6C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
